--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D565264-4659-4B4C-BA2D-EF373FB978B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF35AE2-D17E-48FF-B374-7A46B45444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -38,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shuba, Irina V</author>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="1" shapeId="0">
+    <comment ref="L16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -150,12 +150,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -304,12 +304,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -340,12 +340,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1707,7 +1707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1771,6 +1771,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,24 +2030,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2046,12 +2043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2072,9 +2063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2410,6 +2398,60 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6456,7 +6498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6478,1284 +6520,1284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="56"/>
-      <c r="I3" s="29"/>
+      <c r="F3" s="48"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="98" t="s">
         <v>266</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>268</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="155" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="156"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="72">
         <v>1</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="83">
         <v>2</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="101" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="81" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="72">
         <v>63470751</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="83">
         <v>61495776</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="62" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="81" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="87" t="s">
+      <c r="G17" s="72"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="79" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="78" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="82">
+      <c r="F18" s="71"/>
+      <c r="G18" s="74">
         <v>44767.5625</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="84">
         <v>44773.017361111109</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="78" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="29"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="81" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G20" s="75">
         <v>44776.611111111109</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="85">
         <v>44776.416666666664</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="85" t="s">
+      <c r="F22" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="29"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="34" t="s">
         <v>128</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="160" t="s">
+      <c r="F23" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="29"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="34" t="s">
         <v>194</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="80" t="s">
+      <c r="F24" s="153"/>
+      <c r="G24" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="161"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="29"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="77" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="80">
+      <c r="F26" s="153"/>
+      <c r="G26" s="72">
         <v>22</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="83">
         <v>22</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="80" t="s">
+      <c r="F27" s="154"/>
+      <c r="G27" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80" t="s">
+      <c r="F28" s="71"/>
+      <c r="G28" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="91" t="s">
+      <c r="H28" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="47" t="s">
         <v>195</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="74" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="157" t="s">
+      <c r="F29" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="47" t="s">
         <v>196</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="72" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="158"/>
-      <c r="G30" s="73" t="s">
+      <c r="F30" s="150"/>
+      <c r="G30" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="47" t="s">
         <v>197</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="74" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="158"/>
-      <c r="G31" s="73">
+      <c r="F31" s="150"/>
+      <c r="G31" s="65">
         <v>324116</v>
       </c>
-      <c r="H31" s="95">
+      <c r="H31" s="87">
         <v>141092</v>
       </c>
-      <c r="I31" s="29"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="72" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="158"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="29"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="36" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="74" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="158"/>
-      <c r="G33" s="73">
+      <c r="F33" s="150"/>
+      <c r="G33" s="65">
         <v>320505</v>
       </c>
-      <c r="H33" s="95">
+      <c r="H33" s="87">
         <v>74286</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="34" t="s">
         <v>198</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="74" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="73" t="s">
+      <c r="F34" s="150"/>
+      <c r="G34" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="95" t="s">
+      <c r="H34" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="34" t="s">
         <v>199</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="158"/>
-      <c r="G35" s="73" t="s">
+      <c r="F35" s="150"/>
+      <c r="G35" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="36" t="s">
         <v>200</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="74" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="158"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="96">
+      <c r="F36" s="150"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="88">
         <v>352609</v>
       </c>
-      <c r="I36" s="29"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="74" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="158"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="96" t="s">
+      <c r="F37" s="150"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="34" t="s">
         <v>202</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="74" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="158"/>
-      <c r="G38" s="73">
+      <c r="F38" s="150"/>
+      <c r="G38" s="65">
         <v>68.05</v>
       </c>
-      <c r="H38" s="95">
+      <c r="H38" s="87">
         <v>65.849999999999994</v>
       </c>
-      <c r="I38" s="109" t="s">
+      <c r="I38" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="33" t="s">
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="36" t="s">
         <v>206</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="74" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="158"/>
-      <c r="G39" s="73">
+      <c r="F39" s="150"/>
+      <c r="G39" s="65">
         <v>22.95</v>
       </c>
-      <c r="H39" s="95">
+      <c r="H39" s="87">
         <v>23</v>
       </c>
-      <c r="I39" s="109" t="s">
+      <c r="I39" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J39" s="109" t="s">
+      <c r="J39" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
     </row>
     <row r="40" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="34" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="74" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="158"/>
-      <c r="G40" s="73">
+      <c r="F40" s="150"/>
+      <c r="G40" s="65">
         <v>23.3</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="87">
         <v>23.8</v>
       </c>
-      <c r="I40" s="109" t="s">
+      <c r="I40" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J40" s="109" t="s">
+      <c r="J40" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="33" t="s">
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="74" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="158"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="109" t="s">
+      <c r="F41" s="150"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J41" s="109" t="s">
+      <c r="J41" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
     </row>
     <row r="42" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="34" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="74" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="158"/>
-      <c r="G42" s="73">
+      <c r="F42" s="150"/>
+      <c r="G42" s="65">
         <v>386</v>
       </c>
-      <c r="H42" s="95">
+      <c r="H42" s="87">
         <v>7110</v>
       </c>
-      <c r="I42" s="29"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="74" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="158"/>
-      <c r="G43" s="73" t="s">
+      <c r="F43" s="150"/>
+      <c r="G43" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="95" t="s">
+      <c r="H43" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="29"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="74" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="158"/>
-      <c r="G44" s="73">
+      <c r="F44" s="150"/>
+      <c r="G44" s="65">
         <v>8204255</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="87">
         <v>8210245</v>
       </c>
-      <c r="I44" s="29"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="71" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="158"/>
-      <c r="G45" s="73" t="s">
+      <c r="F45" s="150"/>
+      <c r="G45" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="H45" s="97" t="s">
+      <c r="H45" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="159"/>
-      <c r="G46" s="73" t="s">
+      <c r="F46" s="151"/>
+      <c r="G46" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="H46" s="97"/>
-      <c r="I46" s="29"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="22"/>
       <c r="J46" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="152" t="s">
+      <c r="F47" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="52">
         <v>8002506801</v>
       </c>
-      <c r="H47" s="98"/>
-      <c r="I47" s="29"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="152"/>
-      <c r="G48" s="60">
+      <c r="F48" s="144"/>
+      <c r="G48" s="52">
         <v>324116</v>
       </c>
-      <c r="H48" s="98"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="152"/>
-      <c r="G49" s="60" t="s">
+      <c r="F49" s="144"/>
+      <c r="G49" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="H49" s="98"/>
-      <c r="I49" s="29"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="152"/>
-      <c r="G50" s="60">
+      <c r="F50" s="144"/>
+      <c r="G50" s="52">
         <v>320505</v>
       </c>
-      <c r="H50" s="98"/>
-      <c r="I50" s="29"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="59" t="s">
+      <c r="C51" s="21"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="152"/>
-      <c r="G51" s="60" t="s">
+      <c r="F51" s="144"/>
+      <c r="G51" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="H51" s="98"/>
-      <c r="I51" s="29"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="152"/>
-      <c r="G52" s="60">
+      <c r="F52" s="144"/>
+      <c r="G52" s="52">
         <v>815</v>
       </c>
-      <c r="H52" s="98"/>
-      <c r="I52" s="29"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="59" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="152"/>
-      <c r="G53" s="60" t="s">
+      <c r="F53" s="144"/>
+      <c r="G53" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="29"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="152"/>
-      <c r="G54" s="60">
+      <c r="F54" s="144"/>
+      <c r="G54" s="52">
         <v>68.06</v>
       </c>
-      <c r="H54" s="98"/>
-      <c r="I54" s="70" t="s">
+      <c r="H54" s="90"/>
+      <c r="I54" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="J54" s="33" t="s">
+      <c r="J54" s="26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="152"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="33"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="153" t="s">
+      <c r="F56" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="99" t="s">
+      <c r="H56" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="M56" s="33"/>
+      <c r="I56" s="22"/>
+      <c r="M56" s="26"/>
     </row>
     <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="153"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="29"/>
-      <c r="M57" s="33"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="22"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="153"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="29"/>
-      <c r="M58" s="33"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="22"/>
+      <c r="M58" s="26"/>
     </row>
     <row r="59" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="62" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="153"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="29"/>
-      <c r="M59" s="33"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="22"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62" t="s">
+      <c r="C60" s="21"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="153"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="29"/>
-      <c r="M60" s="33"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="22"/>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="153"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="29"/>
-      <c r="M61" s="33"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="22"/>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="62" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="153"/>
-      <c r="G62" s="65" t="s">
+      <c r="F62" s="145"/>
+      <c r="G62" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="100"/>
-      <c r="I62" s="29"/>
-      <c r="M62" s="33"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="22"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62" t="s">
+      <c r="C63" s="21"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="153"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="29"/>
-      <c r="M63" s="33"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="22"/>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62" t="s">
+      <c r="C64" s="21"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="153"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="33" t="s">
+      <c r="F64" s="145"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="67" t="s">
+      <c r="C65" s="21"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="109" t="s">
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J65" s="111" t="s">
+      <c r="J65" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="M65" s="33"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="67" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="109" t="s">
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="J66" s="111" t="s">
+      <c r="J66" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="M66" s="33"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="67" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="109" t="s">
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="M67" s="33"/>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="109" t="s">
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="M68" s="33"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="67" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="F69" s="68"/>
-      <c r="G69" s="76" t="s">
+      <c r="F69" s="60"/>
+      <c r="G69" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="H69" s="101" t="s">
+      <c r="H69" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="I69" s="112" t="s">
+      <c r="I69" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="M69" s="33"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="67" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68" t="s">
+      <c r="F70" s="60"/>
+      <c r="G70" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="H70" s="101" t="s">
+      <c r="H70" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="M70" s="33"/>
+      <c r="I70" s="22"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="67" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="29"/>
-      <c r="M71" s="33"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="22"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="67" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="101"/>
-      <c r="I72" s="29"/>
-      <c r="M72" s="33"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="22"/>
+      <c r="M72" s="26"/>
     </row>
     <row r="73" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="67" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="101"/>
-      <c r="I73" s="29"/>
-      <c r="M73" s="33"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="22"/>
+      <c r="M73" s="26"/>
     </row>
     <row r="74" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="67" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="29"/>
-      <c r="M74" s="33"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="22"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="103" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="32"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7774,7 +7816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7792,35 +7834,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -7829,10 +7871,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -7842,10 +7884,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="29"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -7855,10 +7897,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -7868,10 +7910,10 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -7881,10 +7923,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="29"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -7894,354 +7936,354 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="29"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="61" t="s">
         <v>277</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="8" t="s">
         <v>280</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="29"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="8" t="s">
         <v>281</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="29"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="29"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="29"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="8" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="29"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="29"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="29"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="29"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="29"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="29"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="21"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="29"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="29"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="21"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="29"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="29"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="28"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="29"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="27" t="s">
         <v>275</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="29"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G34" s="8"/>
@@ -8266,7 +8308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8274,7 +8316,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,28 +8328,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -8316,16 +8358,16 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8604,10 +8646,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="164"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -8621,10 +8663,10 @@
       <c r="A30" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -8635,10 +8677,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8761,7 +8803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -8780,20 +8822,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -8811,7 +8853,7 @@
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="124" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8828,14 +8870,14 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106">
         <v>120</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="106"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8850,14 +8892,14 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106">
         <v>10</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="106"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8956,15 +8998,15 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114">
+      <c r="B17" s="105"/>
+      <c r="C17" s="106">
         <f>SUM(C9:C16)</f>
         <v>24</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="106"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -8981,10 +9023,10 @@
       <c r="A22" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9004,14 +9046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9024,450 +9066,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="166" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="166">
         <v>129</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="166">
         <v>8657</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="168"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="166">
         <v>89</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="166">
         <v>6008</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="169"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="166">
         <v>257</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="166">
         <v>15350</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="169"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="135">
         <v>475</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="135">
         <v>30015</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="168"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="173">
         <v>1</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="173">
         <v>65</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="168"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="173">
         <v>2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="173">
         <v>65</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="168"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="135">
         <f>SUM(C10:C11)</f>
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="135">
         <f>SUM(D10:D11)</f>
         <v>130</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="173">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="173">
         <v>65</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="168"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="173">
         <v>1</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="173">
         <v>65</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="168"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="135">
         <f>SUM(C13:C14)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="135">
         <f>SUM(D13:D14)</f>
         <v>130</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="119">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="119">
         <v>65</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="169"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="135">
         <f>SUM(C16)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="135">
         <f>SUM(D16)</f>
         <v>65</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="169"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="166">
         <v>4</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="166">
         <v>276</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="174"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="166">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="166">
         <v>65</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="174"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="166">
         <v>1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="166">
         <v>65</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="174"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="166">
         <v>2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="166">
         <v>130</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="174"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="135">
         <f>SUM(C18:C21)</f>
         <v>8</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="135">
         <f>SUM(D18:D21)</f>
         <v>536</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="168"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="177">
         <f>C6+C10+C13</f>
         <v>131</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="177">
         <f>D6+D10+D13</f>
         <v>8787</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="178"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="177">
         <f>C7+C11+C14</f>
         <v>92</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="177">
         <f>D7+D11+D14</f>
         <v>6138</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="178"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="177">
         <f>C8+C21</f>
         <v>259</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="177">
         <f>D8+D21</f>
         <v>15480</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="178"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="177">
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="177">
         <f>D20</f>
         <v>65</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="178"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="177">
         <f>C18</f>
         <v>4</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="177">
         <f>D18</f>
         <v>276</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="178"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="177">
         <f>C19</f>
         <v>1</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="177">
         <f>D19</f>
         <v>65</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="178"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="177">
         <f>C16</f>
         <v>1</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="177">
         <f>D16</f>
         <v>65</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="178"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="181">
         <f>C9+C12+C15+C17+C22</f>
         <v>489</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="181">
         <f>D9+D12+D15+D17+D22</f>
         <v>30876</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="182"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -9482,7 +9524,7 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9497,22 +9539,22 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="181">
         <v>670</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="181">
         <v>44811</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="181"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -9524,10 +9566,10 @@
       <c r="D34" s="2">
         <v>437</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -9539,10 +9581,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -9554,10 +9596,10 @@
       <c r="D36" s="2">
         <v>253</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9572,24 +9614,24 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="10">
         <f>SUM(C34:C37)</f>
         <v>36</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="10">
         <f>SUM(D34:D37)</f>
         <v>1610</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -9604,22 +9646,22 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="10">
         <v>3190</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="10">
         <v>213180</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -9635,32 +9677,32 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="10">
         <f>C41</f>
         <v>50</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="10">
         <f>D41</f>
         <v>3000</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="14">
+      <c r="B43" s="160"/>
+      <c r="C43" s="10">
         <f>C30+C33+C38+C40+C42</f>
         <v>4435</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="10">
         <f>D30+D33+D38+D40+D42</f>
         <v>293477</v>
       </c>
@@ -9670,13 +9712,13 @@
       <c r="A46" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -9687,179 +9729,179 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B58" s="44">
         <f>C58/$C$68</f>
         <v>2.9537767756482525E-2</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="14">
         <v>131</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="14">
         <v>8787</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="44">
         <f t="shared" ref="B59:B67" si="0">C59/$C$68</f>
         <v>2.0744081172491543E-2</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="14">
         <v>92</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="14">
         <v>6138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="44">
         <f t="shared" si="0"/>
         <v>5.8399098083427282E-2</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="14">
         <v>259</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="14">
         <v>15480</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B61" s="44">
         <f t="shared" si="0"/>
         <v>2.2547914317925591E-4</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="14">
         <v>1</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="14">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="44">
         <f t="shared" si="0"/>
         <v>9.0191657271702366E-4</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="14">
         <v>4</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="14">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="44">
         <f t="shared" si="0"/>
         <v>2.2547914317925591E-4</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="14">
         <v>1</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="14">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="44">
         <f t="shared" si="0"/>
         <v>0.15174746335963923</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="14">
         <f>1+2+670</f>
         <v>673</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="14">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="44">
         <f t="shared" si="0"/>
         <v>8.1172491544532124E-3</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="32">
         <v>36</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="32">
         <v>1610</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="44">
         <f t="shared" si="0"/>
         <v>0.71927846674182638</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="32">
         <v>3190</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="32">
         <v>213180</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="44">
         <f t="shared" si="0"/>
         <v>1.1273957158962795E-2</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="32">
         <v>50</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="32">
         <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="167" t="s">
+      <c r="A68" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="168"/>
-      <c r="C68" s="40">
+      <c r="B68" s="160"/>
+      <c r="C68" s="32">
         <v>4435</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="32">
         <v>293477</v>
       </c>
     </row>
@@ -9879,14 +9921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -9898,30 +9940,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9932,21 +9974,21 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9960,7 +10002,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9974,7 +10016,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9988,7 +10030,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10002,7 +10044,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10016,7 +10058,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10030,10 +10072,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="164"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="3">
         <f>SUM(C6:C11)</f>
         <v>341</v>
@@ -10044,7 +10086,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10058,7 +10100,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -10072,7 +10114,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -10086,7 +10128,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -10100,7 +10142,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -10114,10 +10156,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="3">
         <f>SUM(C13:C17)</f>
         <v>5</v>
@@ -10128,7 +10170,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -10142,7 +10184,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -10156,7 +10198,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -10170,10 +10212,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="3">
         <f>SUM(C19:C21)</f>
         <v>3</v>
@@ -10184,24 +10226,24 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="37">
         <v>10</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="37">
         <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="167" t="s">
+      <c r="A24" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="168"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="3">
         <f>10</f>
         <v>10</v>
@@ -10211,7 +10253,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -10225,38 +10267,38 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="15">
         <v>10</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="15">
         <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="15">
         <v>220</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="15">
         <v>14739</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="168"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="3">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -10267,10 +10309,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="1">
@@ -10281,10 +10323,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="168"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -10295,7 +10337,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -10309,10 +10351,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="3">
         <f>SUM(C31)</f>
         <v>7</v>
@@ -10351,10 +10393,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="168"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="3">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -10365,10 +10407,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="168"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -10382,13 +10424,13 @@
       <c r="A40" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -10399,27 +10441,27 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="43">
         <f>D45/$D$49</f>
         <v>0.94986072423398327</v>
       </c>
@@ -10428,13 +10470,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="43">
         <f>D46/$D$49</f>
         <v>1.3927576601671309E-2</v>
       </c>
@@ -10443,13 +10485,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="43">
         <f>D47/$D$49</f>
         <v>8.356545961002786E-3</v>
       </c>
@@ -10458,13 +10500,13 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="43">
         <f>D48/$D$49</f>
         <v>2.7855153203342618E-2</v>
       </c>
@@ -10473,8 +10515,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="3">
         <v>100</v>
       </c>
@@ -10484,13 +10526,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="43">
         <f>D50/$D$54</f>
         <v>0.1588430535798957</v>
       </c>
@@ -10499,13 +10541,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="43">
         <f>D51/$D$54</f>
         <v>0.75628259838786149</v>
       </c>
@@ -10514,13 +10556,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="43">
         <f>D52/$D$54</f>
         <v>1.6595542911332385E-3</v>
       </c>
@@ -10529,13 +10571,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="43">
         <f>D53/$D$54</f>
         <v>4.74158368895211E-4</v>
       </c>
@@ -10544,10 +10586,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="168"/>
+      <c r="B54" s="160"/>
       <c r="C54">
         <v>100</v>
       </c>
@@ -10557,12 +10599,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10570,6 +10606,12 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10579,7 +10621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -10603,128 +10645,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="161" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="161" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="163" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170" t="s">
+      <c r="I6" s="162"/>
+      <c r="J6" s="162" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170" t="s">
+      <c r="K6" s="162"/>
+      <c r="L6" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170" t="s">
+      <c r="M6" s="162"/>
+      <c r="N6" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170" t="s">
+      <c r="O6" s="162"/>
+      <c r="P6" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="170"/>
+      <c r="Q6" s="162"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -11003,43 +11045,43 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -11050,17 +11092,12 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="26" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:Q1"/>
@@ -11069,19 +11106,24 @@
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFD5FFFF"/>
   </sheetPr>
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -11097,12 +11139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -11119,12 +11161,12 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="161" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -11141,12 +11183,12 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="161" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -11163,10 +11205,10 @@
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -11183,12 +11225,12 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="123" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -11205,182 +11247,182 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="141" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="137" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="137">
+      <c r="B7" s="129">
         <f>B55+E54+H54</f>
         <v>383</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="151">
+      <c r="C7" s="127"/>
+      <c r="D7" s="143">
         <f>B7*100/B17</f>
         <v>28.49702380952381</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="129">
         <f>B54+H57</f>
         <v>288</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="151">
+      <c r="C8" s="127"/>
+      <c r="D8" s="143">
         <f>B8*100/B17</f>
         <v>21.428571428571427</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="137">
+      <c r="B9" s="129">
         <f>B56+H55</f>
         <v>280</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="151">
+      <c r="C9" s="127"/>
+      <c r="D9" s="143">
         <f>B9*100/B17</f>
         <v>20.833333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="137">
+      <c r="B10" s="129">
         <f>B58+H56</f>
         <v>121</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="151">
+      <c r="C10" s="127"/>
+      <c r="D10" s="143">
         <f>B10*100/B17</f>
         <v>9.0029761904761898</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="137">
+      <c r="B11" s="129">
         <f>B57+K54</f>
         <v>115</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="151">
+      <c r="C11" s="127"/>
+      <c r="D11" s="143">
         <f>B11*100/B17</f>
         <v>8.5565476190476186</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="137">
+      <c r="B12" s="129">
         <f>B59+N54</f>
         <v>70</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="151">
+      <c r="C12" s="127"/>
+      <c r="D12" s="143">
         <f>B12*100/B17</f>
         <v>5.208333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="115" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="137">
+      <c r="B13" s="129">
         <f>B60</f>
         <v>56</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="151">
+      <c r="C13" s="127"/>
+      <c r="D13" s="143">
         <f>B13*100/B17</f>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="115" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="137">
+      <c r="B14" s="129">
         <f>B61</f>
         <v>16</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="151">
+      <c r="C14" s="127"/>
+      <c r="D14" s="143">
         <f>B14*100/B17</f>
         <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="115" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="137">
+      <c r="B15" s="129">
         <f>B62</f>
         <v>12</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="151">
+      <c r="C15" s="127"/>
+      <c r="D15" s="143">
         <f>B15*100/B17</f>
         <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="115" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="137">
+      <c r="B16" s="129">
         <f>B63</f>
         <v>3</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="151">
+      <c r="C16" s="127"/>
+      <c r="D16" s="143">
         <f>B16*100/B17</f>
         <v>0.22321428571428573</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="145">
+      <c r="B17" s="137">
         <v>1344</v>
       </c>
-      <c r="C17" s="145">
+      <c r="C17" s="137">
         <f>SUM(C7:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="146">
+      <c r="D17" s="138">
         <f>SUM(D7:D16)</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="123" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11388,691 +11430,691 @@
       <c r="A21" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="125" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="125" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="132" t="s">
         <v>305</v>
       </c>
-      <c r="B23" s="137">
+      <c r="B23" s="129">
         <v>260</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="138">
+      <c r="C23" s="127"/>
+      <c r="D23" s="130">
         <v>24.007386888273317</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="132" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="137">
+      <c r="B24" s="129">
         <v>242</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="138">
+      <c r="C24" s="127"/>
+      <c r="D24" s="130">
         <v>22.345337026777472</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="132" t="s">
         <v>308</v>
       </c>
-      <c r="B25" s="137">
+      <c r="B25" s="129">
         <v>233</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="138">
+      <c r="C25" s="127"/>
+      <c r="D25" s="130">
         <v>21.514312096029549</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="137">
+      <c r="B26" s="129">
         <v>113</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="138">
+      <c r="C26" s="127"/>
+      <c r="D26" s="130">
         <v>10.433979686057249</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="132" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="137">
+      <c r="B27" s="129">
         <v>90</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="138">
+      <c r="C27" s="127"/>
+      <c r="D27" s="130">
         <v>8.310249307479225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="137">
+      <c r="B28" s="129">
         <v>58</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="138">
+      <c r="C28" s="127"/>
+      <c r="D28" s="130">
         <v>5.3554939981532783</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="137">
+      <c r="B29" s="129">
         <v>56</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="138">
+      <c r="C29" s="127"/>
+      <c r="D29" s="130">
         <v>5.1708217913204066</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="132" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="137">
+      <c r="B30" s="129">
         <v>16</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="138">
+      <c r="C30" s="127"/>
+      <c r="D30" s="130">
         <v>1.4773776546629733</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="B31" s="137">
+      <c r="B31" s="129">
         <v>12</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="138">
+      <c r="D31" s="130">
         <v>1.10803324099723</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="B32" s="137">
+      <c r="B32" s="129">
         <v>3</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="138">
+      <c r="D32" s="130">
         <v>0.2770083102493075</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="128" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="136">
+      <c r="B33" s="128">
         <f>SUM(B23:B32)</f>
         <v>1083</v>
       </c>
-      <c r="C33" s="136">
+      <c r="C33" s="128">
         <f>SUM(C23:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="139">
+      <c r="D33" s="131">
         <f>SUM(D23:D32)</f>
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="164" t="s">
         <v>319</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="132" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="137">
+      <c r="B35" s="129">
         <v>85</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="138">
+      <c r="C35" s="127"/>
+      <c r="D35" s="130">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="B36" s="136">
+      <c r="B36" s="128">
         <f>SUM(B35)</f>
         <v>85</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="128">
         <f>SUM(C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="141">
+      <c r="D36" s="133">
         <f>SUM(D35)</f>
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="164" t="s">
         <v>321</v>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="129" t="s">
         <v>304</v>
       </c>
-      <c r="B38" s="137">
+      <c r="B38" s="129">
         <v>56</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="138">
+      <c r="C38" s="127"/>
+      <c r="D38" s="130">
         <v>34.567901234567898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="B39" s="137">
+      <c r="B39" s="129">
         <v>47</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="138">
+      <c r="C39" s="127"/>
+      <c r="D39" s="130">
         <v>29.012345679012345</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="B40" s="137">
+      <c r="B40" s="129">
         <v>31</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="138">
+      <c r="C40" s="127"/>
+      <c r="D40" s="130">
         <v>19.135802469135804</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="B41" s="137">
+      <c r="B41" s="129">
         <v>28</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="138">
+      <c r="C41" s="127"/>
+      <c r="D41" s="130">
         <v>17.283950617283949</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="136" t="s">
+      <c r="A42" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="B42" s="136">
+      <c r="B42" s="128">
         <f>SUM(B38:B41)</f>
         <v>162</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="128">
         <f>SUM(C38:C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D42" s="133">
         <f>SUM(D38:D41)</f>
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="164" t="s">
         <v>323</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="129" t="s">
         <v>306</v>
       </c>
-      <c r="B44" s="137">
+      <c r="B44" s="129">
         <v>2</v>
       </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="138">
+      <c r="C44" s="129"/>
+      <c r="D44" s="130">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="B45" s="136">
+      <c r="B45" s="128">
         <f>SUM(B44)</f>
         <v>2</v>
       </c>
-      <c r="C45" s="136">
+      <c r="C45" s="128">
         <f>SUM(C44)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="141">
+      <c r="D45" s="133">
         <f>SUM(D44)</f>
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
+      <c r="A46" s="164" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="172"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="137">
+      <c r="B47" s="129">
         <v>12</v>
       </c>
-      <c r="C47" s="137"/>
-      <c r="D47" s="138">
+      <c r="C47" s="129"/>
+      <c r="D47" s="130">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="136" t="s">
+      <c r="A48" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="B48" s="136">
+      <c r="B48" s="128">
         <f>SUM(B47)</f>
         <v>12</v>
       </c>
-      <c r="C48" s="136">
+      <c r="C48" s="128">
         <f>SUM(C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="141">
+      <c r="D48" s="133">
         <f>SUM(D47)</f>
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="143">
+      <c r="B49" s="135">
         <f>B33+B36+B42+B45+B48</f>
         <v>1344</v>
       </c>
-      <c r="C49" s="143">
+      <c r="C49" s="135">
         <f>C33+C36+C42+C45+C48</f>
         <v>0</v>
       </c>
-      <c r="D49" s="144"/>
+      <c r="D49" s="136"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="118" t="s">
+      <c r="A53" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="110">
         <v>1083</v>
       </c>
-      <c r="C53" s="117" t="s">
+      <c r="C53" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="119" t="s">
+      <c r="D53" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E53" s="119">
+      <c r="E53" s="111">
         <v>85</v>
       </c>
-      <c r="F53" s="117" t="s">
+      <c r="F53" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="G53" s="120" t="s">
+      <c r="G53" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="H53" s="120">
+      <c r="H53" s="112">
         <v>162</v>
       </c>
-      <c r="I53" s="117" t="s">
+      <c r="I53" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="J53" s="121" t="s">
+      <c r="J53" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="K53" s="121">
+      <c r="K53" s="113">
         <v>2</v>
       </c>
-      <c r="L53" s="117" t="s">
+      <c r="L53" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="M53" s="122" t="s">
+      <c r="M53" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="N53" s="122">
+      <c r="N53" s="114">
         <v>12</v>
       </c>
-      <c r="O53" s="117" t="s">
+      <c r="O53" s="109" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="125">
+      <c r="B54" s="117">
         <v>260</v>
       </c>
-      <c r="C54" s="124">
+      <c r="C54" s="116">
         <f>B54*100/B53</f>
         <v>24.007386888273317</v>
       </c>
-      <c r="D54" s="126" t="s">
+      <c r="D54" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="E54" s="126">
+      <c r="E54" s="118">
         <v>85</v>
       </c>
-      <c r="F54" s="127">
+      <c r="F54" s="119">
         <v>100</v>
       </c>
-      <c r="G54" s="76" t="s">
+      <c r="G54" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="H54" s="76">
+      <c r="H54" s="68">
         <v>56</v>
       </c>
-      <c r="I54" s="128">
+      <c r="I54" s="120">
         <f>H54*100/H53</f>
         <v>34.567901234567898</v>
       </c>
-      <c r="J54" s="129" t="s">
+      <c r="J54" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="K54" s="129">
+      <c r="K54" s="121">
         <v>2</v>
       </c>
-      <c r="L54" s="127">
+      <c r="L54" s="119">
         <v>100</v>
       </c>
-      <c r="M54" s="130" t="s">
+      <c r="M54" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="N54" s="130">
+      <c r="N54" s="122">
         <v>12</v>
       </c>
-      <c r="O54" s="127">
+      <c r="O54" s="119">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="125" t="s">
+      <c r="A55" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="B55" s="125">
+      <c r="B55" s="117">
         <v>242</v>
       </c>
-      <c r="C55" s="124">
+      <c r="C55" s="116">
         <f>B55*100/B53</f>
         <v>22.345337026777472</v>
       </c>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="76" t="s">
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="H55" s="76">
+      <c r="H55" s="68">
         <v>47</v>
       </c>
-      <c r="I55" s="128">
+      <c r="I55" s="120">
         <f>H55*100/H53</f>
         <v>29.012345679012345</v>
       </c>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="127"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="119"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="117" t="s">
         <v>308</v>
       </c>
-      <c r="B56" s="125">
+      <c r="B56" s="117">
         <v>233</v>
       </c>
-      <c r="C56" s="124">
+      <c r="C56" s="116">
         <f>B56*100/B53</f>
         <v>21.514312096029549</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="76" t="s">
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="H56" s="76">
+      <c r="H56" s="68">
         <v>31</v>
       </c>
-      <c r="I56" s="128">
+      <c r="I56" s="120">
         <f>H56*100/H53</f>
         <v>19.135802469135804</v>
       </c>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="127"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="119"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="B57" s="125">
+      <c r="B57" s="117">
         <v>113</v>
       </c>
-      <c r="C57" s="124">
+      <c r="C57" s="116">
         <f>B57*100/B53</f>
         <v>10.433979686057249</v>
       </c>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="76" t="s">
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="H57" s="76">
+      <c r="H57" s="68">
         <v>28</v>
       </c>
-      <c r="I57" s="128">
+      <c r="I57" s="120">
         <f>H57*100/H53</f>
         <v>17.283950617283949</v>
       </c>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="127"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="119"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="B58" s="125">
+      <c r="B58" s="117">
         <v>90</v>
       </c>
-      <c r="C58" s="124">
+      <c r="C58" s="116">
         <f>B58*100/B53</f>
         <v>8.310249307479225</v>
       </c>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="127"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="119"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="117" t="s">
         <v>307</v>
       </c>
-      <c r="B59" s="125">
+      <c r="B59" s="117">
         <v>58</v>
       </c>
-      <c r="C59" s="124">
+      <c r="C59" s="116">
         <f>B59*100/B53</f>
         <v>5.3554939981532783</v>
       </c>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="127"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="119"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="117" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="125">
+      <c r="B60" s="117">
         <v>56</v>
       </c>
-      <c r="C60" s="124">
+      <c r="C60" s="116">
         <f>B60*100/B53</f>
         <v>5.1708217913204066</v>
       </c>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="130"/>
-      <c r="O60" s="127"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="119"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="117" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="125">
+      <c r="B61" s="117">
         <v>16</v>
       </c>
-      <c r="C61" s="124">
+      <c r="C61" s="116">
         <f>B61*100/B53</f>
         <v>1.4773776546629733</v>
       </c>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="127"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="127"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="121"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="119"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="125" t="s">
+      <c r="A62" s="117" t="s">
         <v>312</v>
       </c>
-      <c r="B62" s="125">
+      <c r="B62" s="117">
         <v>12</v>
       </c>
-      <c r="C62" s="124">
+      <c r="C62" s="116">
         <f>B62*100/B53</f>
         <v>1.10803324099723</v>
       </c>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="127"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="121"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="119"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="125" t="s">
+      <c r="A63" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="B63" s="125">
+      <c r="B63" s="117">
         <v>3</v>
       </c>
-      <c r="C63" s="124">
+      <c r="C63" s="116">
         <f>B63*100/B53</f>
         <v>0.2770083102493075</v>
       </c>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="127"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="121"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF35AE2-D17E-48FF-B374-7A46B45444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE7FEC-103B-43FD-A125-15B8C1F0C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2007,11 +2007,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2336,6 +2347,60 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2399,59 +2464,14 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3368,7 +3388,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'3'!$A$58:$B$67</c:f>
+              <c:f>'3'!$A$59:$B$68</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -3440,7 +3460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3'!$B$58:$B$67</c:f>
+              <c:f>'3'!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6520,16 +6540,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -6673,10 +6693,10 @@
         <v>159</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="148"/>
+      <c r="H13" s="166"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6852,7 +6872,7 @@
       <c r="E23" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="170" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="78" t="s">
@@ -6871,7 +6891,7 @@
       <c r="E24" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="171"/>
       <c r="G24" s="72" t="s">
         <v>190</v>
       </c>
@@ -6890,7 +6910,7 @@
       <c r="E25" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="153"/>
+      <c r="F25" s="171"/>
       <c r="G25" s="72"/>
       <c r="H25" s="83"/>
       <c r="I25" s="22"/>
@@ -6907,7 +6927,7 @@
       <c r="E26" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="171"/>
       <c r="G26" s="72">
         <v>22</v>
       </c>
@@ -6926,7 +6946,7 @@
       <c r="E27" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="154"/>
+      <c r="F27" s="172"/>
       <c r="G27" s="72" t="s">
         <v>135</v>
       </c>
@@ -6964,7 +6984,7 @@
       <c r="E29" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="F29" s="167" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="65" t="s">
@@ -6985,7 +7005,7 @@
       <c r="E30" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="150"/>
+      <c r="F30" s="168"/>
       <c r="G30" s="65" t="s">
         <v>136</v>
       </c>
@@ -7006,7 +7026,7 @@
       <c r="E31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="150"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="65">
         <v>324116</v>
       </c>
@@ -7025,7 +7045,7 @@
       <c r="E32" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="150"/>
+      <c r="F32" s="168"/>
       <c r="G32" s="65"/>
       <c r="H32" s="87"/>
       <c r="I32" s="22"/>
@@ -7042,7 +7062,7 @@
       <c r="E33" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="150"/>
+      <c r="F33" s="168"/>
       <c r="G33" s="65">
         <v>320505</v>
       </c>
@@ -7063,7 +7083,7 @@
       <c r="E34" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="150"/>
+      <c r="F34" s="168"/>
       <c r="G34" s="65" t="s">
         <v>134</v>
       </c>
@@ -7082,7 +7102,7 @@
       <c r="E35" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="150"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="65" t="s">
         <v>138</v>
       </c>
@@ -7103,7 +7123,7 @@
       <c r="E36" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="150"/>
+      <c r="F36" s="168"/>
       <c r="G36" s="65"/>
       <c r="H36" s="88">
         <v>352609</v>
@@ -7122,7 +7142,7 @@
       <c r="E37" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="150"/>
+      <c r="F37" s="168"/>
       <c r="G37" s="65"/>
       <c r="H37" s="88" t="s">
         <v>187</v>
@@ -7141,7 +7161,7 @@
       <c r="E38" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="150"/>
+      <c r="F38" s="168"/>
       <c r="G38" s="65">
         <v>68.05</v>
       </c>
@@ -7174,7 +7194,7 @@
       <c r="E39" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="150"/>
+      <c r="F39" s="168"/>
       <c r="G39" s="65">
         <v>22.95</v>
       </c>
@@ -7204,7 +7224,7 @@
       <c r="E40" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="150"/>
+      <c r="F40" s="168"/>
       <c r="G40" s="65">
         <v>23.3</v>
       </c>
@@ -7237,7 +7257,7 @@
       <c r="E41" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="150"/>
+      <c r="F41" s="168"/>
       <c r="G41" s="65"/>
       <c r="H41" s="87"/>
       <c r="I41" s="101" t="s">
@@ -7263,7 +7283,7 @@
       <c r="E42" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="150"/>
+      <c r="F42" s="168"/>
       <c r="G42" s="65">
         <v>386</v>
       </c>
@@ -7281,7 +7301,7 @@
       <c r="E43" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="150"/>
+      <c r="F43" s="168"/>
       <c r="G43" s="65" t="s">
         <v>139</v>
       </c>
@@ -7299,7 +7319,7 @@
       <c r="E44" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="150"/>
+      <c r="F44" s="168"/>
       <c r="G44" s="65">
         <v>8204255</v>
       </c>
@@ -7318,7 +7338,7 @@
       <c r="E45" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="150"/>
+      <c r="F45" s="168"/>
       <c r="G45" s="65" t="s">
         <v>189</v>
       </c>
@@ -7334,7 +7354,7 @@
       <c r="E46" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="151"/>
+      <c r="F46" s="169"/>
       <c r="G46" s="65" t="s">
         <v>251</v>
       </c>
@@ -7352,7 +7372,7 @@
       <c r="E47" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="144" t="s">
+      <c r="F47" s="162" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="52">
@@ -7369,7 +7389,7 @@
       <c r="E48" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="144"/>
+      <c r="F48" s="162"/>
       <c r="G48" s="52">
         <v>324116</v>
       </c>
@@ -7384,7 +7404,7 @@
       <c r="E49" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="144"/>
+      <c r="F49" s="162"/>
       <c r="G49" s="52" t="s">
         <v>140</v>
       </c>
@@ -7399,7 +7419,7 @@
       <c r="E50" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="144"/>
+      <c r="F50" s="162"/>
       <c r="G50" s="52">
         <v>320505</v>
       </c>
@@ -7414,7 +7434,7 @@
       <c r="E51" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="144"/>
+      <c r="F51" s="162"/>
       <c r="G51" s="52" t="s">
         <v>141</v>
       </c>
@@ -7429,7 +7449,7 @@
       <c r="E52" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="144"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="52">
         <v>815</v>
       </c>
@@ -7444,7 +7464,7 @@
       <c r="E53" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="144"/>
+      <c r="F53" s="162"/>
       <c r="G53" s="52" t="s">
         <v>225</v>
       </c>
@@ -7459,7 +7479,7 @@
       <c r="E54" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="144"/>
+      <c r="F54" s="162"/>
       <c r="G54" s="52">
         <v>68.06</v>
       </c>
@@ -7479,7 +7499,7 @@
       <c r="E55" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="144"/>
+      <c r="F55" s="162"/>
       <c r="G55" s="52"/>
       <c r="H55" s="90"/>
       <c r="I55" s="62"/>
@@ -7493,7 +7513,7 @@
       <c r="E56" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="145" t="s">
+      <c r="F56" s="163" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="55" t="s">
@@ -7513,7 +7533,7 @@
       <c r="E57" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="145"/>
+      <c r="F57" s="163"/>
       <c r="G57" s="55"/>
       <c r="H57" s="91"/>
       <c r="I57" s="22"/>
@@ -7527,7 +7547,7 @@
       <c r="E58" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="145"/>
+      <c r="F58" s="163"/>
       <c r="G58" s="55"/>
       <c r="H58" s="91"/>
       <c r="I58" s="22"/>
@@ -7541,7 +7561,7 @@
       <c r="E59" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="145"/>
+      <c r="F59" s="163"/>
       <c r="G59" s="55"/>
       <c r="H59" s="91"/>
       <c r="I59" s="22"/>
@@ -7555,7 +7575,7 @@
       <c r="E60" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="145"/>
+      <c r="F60" s="163"/>
       <c r="G60" s="55"/>
       <c r="H60" s="91"/>
       <c r="I60" s="22"/>
@@ -7569,7 +7589,7 @@
       <c r="E61" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="145"/>
+      <c r="F61" s="163"/>
       <c r="G61" s="56"/>
       <c r="H61" s="92"/>
       <c r="I61" s="22"/>
@@ -7583,7 +7603,7 @@
       <c r="E62" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="145"/>
+      <c r="F62" s="163"/>
       <c r="G62" s="57" t="s">
         <v>143</v>
       </c>
@@ -7599,7 +7619,7 @@
       <c r="E63" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="145"/>
+      <c r="F63" s="163"/>
       <c r="G63" s="57"/>
       <c r="H63" s="92"/>
       <c r="I63" s="22"/>
@@ -7613,7 +7633,7 @@
       <c r="E64" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="145"/>
+      <c r="F64" s="163"/>
       <c r="G64" s="57"/>
       <c r="H64" s="91"/>
       <c r="I64" s="22"/>
@@ -7834,19 +7854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
@@ -8328,28 +8348,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -8646,10 +8666,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="156"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -8822,20 +8842,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -9050,10 +9070,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9066,99 +9086,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="145" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="166">
+      <c r="C6" s="145">
         <v>129</v>
       </c>
-      <c r="D6" s="166">
+      <c r="D6" s="145">
         <v>8657</v>
       </c>
-      <c r="E6" s="168"/>
+      <c r="E6" s="147"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="166">
+      <c r="C7" s="145">
         <v>89</v>
       </c>
-      <c r="D7" s="166">
+      <c r="D7" s="145">
         <v>6008</v>
       </c>
-      <c r="E7" s="169"/>
+      <c r="E7" s="148"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="166">
+      <c r="C8" s="145">
         <v>257</v>
       </c>
-      <c r="D8" s="166">
+      <c r="D8" s="145">
         <v>15350</v>
       </c>
-      <c r="E8" s="169"/>
+      <c r="E8" s="148"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="150" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="135">
@@ -9167,43 +9187,43 @@
       <c r="D9" s="135">
         <v>30015</v>
       </c>
-      <c r="E9" s="168"/>
+      <c r="E9" s="147"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="152">
         <v>1</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="152">
         <v>65</v>
       </c>
-      <c r="E10" s="168"/>
+      <c r="E10" s="147"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="152">
         <v>2</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="152">
         <v>65</v>
       </c>
-      <c r="E11" s="168"/>
+      <c r="E11" s="147"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="150" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="135">
@@ -9214,43 +9234,43 @@
         <f>SUM(D10:D11)</f>
         <v>130</v>
       </c>
-      <c r="E12" s="168"/>
+      <c r="E12" s="147"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="152">
         <v>1</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="152">
         <v>65</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="147"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="152">
         <v>1</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="152">
         <v>65</v>
       </c>
-      <c r="E14" s="168"/>
+      <c r="E14" s="147"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="150" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="135">
@@ -9261,13 +9281,13 @@
         <f>SUM(D13:D14)</f>
         <v>130</v>
       </c>
-      <c r="E15" s="168"/>
+      <c r="E15" s="147"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="145" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="119">
@@ -9276,13 +9296,13 @@
       <c r="D16" s="119">
         <v>65</v>
       </c>
-      <c r="E16" s="169"/>
+      <c r="E16" s="148"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="150" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="135">
@@ -9293,73 +9313,73 @@
         <f>SUM(D16)</f>
         <v>65</v>
       </c>
-      <c r="E17" s="169"/>
+      <c r="E17" s="148"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="145">
         <v>4</v>
       </c>
-      <c r="D18" s="166">
+      <c r="D18" s="145">
         <v>276</v>
       </c>
-      <c r="E18" s="174"/>
+      <c r="E18" s="153"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="167" t="s">
+      <c r="A19" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="166">
+      <c r="C19" s="145">
         <v>1</v>
       </c>
-      <c r="D19" s="166">
+      <c r="D19" s="145">
         <v>65</v>
       </c>
-      <c r="E19" s="174"/>
+      <c r="E19" s="153"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="166">
+      <c r="C20" s="145">
         <v>1</v>
       </c>
-      <c r="D20" s="166">
+      <c r="D20" s="145">
         <v>65</v>
       </c>
-      <c r="E20" s="174"/>
+      <c r="E20" s="153"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="166">
+      <c r="C21" s="145">
         <v>2</v>
       </c>
-      <c r="D21" s="166">
+      <c r="D21" s="145">
         <v>130</v>
       </c>
-      <c r="E21" s="174"/>
+      <c r="E21" s="153"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="150" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="135">
@@ -9370,216 +9390,208 @@
         <f>SUM(D18:D21)</f>
         <v>536</v>
       </c>
-      <c r="E22" s="168"/>
+      <c r="E22" s="147"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="183"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B24" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C24" s="156">
         <f>C6+C10+C13</f>
         <v>131</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D24" s="156">
         <f>D6+D10+D13</f>
         <v>8787</v>
       </c>
-      <c r="E23" s="178"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="175" t="s">
+      <c r="E24" s="157"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B25" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="177">
+      <c r="C25" s="156">
         <f>C7+C11+C14</f>
         <v>92</v>
       </c>
-      <c r="D24" s="177">
+      <c r="D25" s="156">
         <f>D7+D11+D14</f>
         <v>6138</v>
       </c>
-      <c r="E24" s="178"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="179" t="s">
+      <c r="E25" s="157"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B26" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="177">
+      <c r="C26" s="156">
         <f>C8+C21</f>
         <v>259</v>
       </c>
-      <c r="D25" s="177">
+      <c r="D26" s="156">
         <f>D8+D21</f>
         <v>15480</v>
       </c>
-      <c r="E25" s="178"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="175" t="s">
+      <c r="E26" s="157"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B27" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C27" s="156">
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D27" s="156">
         <f>D20</f>
         <v>65</v>
       </c>
-      <c r="E26" s="178"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="175" t="s">
+      <c r="E27" s="157"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B28" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C28" s="156">
         <f>C18</f>
         <v>4</v>
       </c>
-      <c r="D27" s="177">
+      <c r="D28" s="156">
         <f>D18</f>
         <v>276</v>
       </c>
-      <c r="E27" s="178"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="175" t="s">
+      <c r="E28" s="157"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="176" t="s">
+      <c r="B29" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C29" s="156">
         <f>C19</f>
         <v>1</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D29" s="156">
         <f>D19</f>
         <v>65</v>
       </c>
-      <c r="E28" s="178"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="175" t="s">
+      <c r="E29" s="157"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B30" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="177">
+      <c r="C30" s="156">
         <f>C16</f>
         <v>1</v>
       </c>
-      <c r="D29" s="177">
+      <c r="D30" s="156">
         <f>D16</f>
         <v>65</v>
       </c>
-      <c r="E29" s="178"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="180" t="s">
+      <c r="E30" s="157"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B31" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="181">
+      <c r="C31" s="160">
         <f>C9+C12+C15+C17+C22</f>
         <v>489</v>
       </c>
-      <c r="D30" s="181">
+      <c r="D31" s="160">
         <f>D9+D12+D15+D17+D22</f>
         <v>30876</v>
       </c>
-      <c r="E30" s="182"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="161"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2">
         <v>670</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>44811</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="180" t="s">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="181" t="s">
+      <c r="B34" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="181">
+      <c r="C34" s="160">
         <v>670</v>
       </c>
-      <c r="D33" s="181">
+      <c r="D34" s="160">
         <v>44811</v>
       </c>
-      <c r="E33" s="181"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2">
-        <v>437</v>
-      </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="160"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -9588,13 +9600,13 @@
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="E36" s="11"/>
     </row>
@@ -9603,315 +9615,331 @@
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>253</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>24</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>870</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="10">
-        <f>SUM(C34:C37)</f>
+      <c r="C39" s="10">
+        <f>SUM(C35:C38)</f>
         <v>36</v>
       </c>
-      <c r="D38" s="10">
-        <f>SUM(D34:D37)</f>
+      <c r="D39" s="10">
+        <f>SUM(D35:D38)</f>
         <v>1610</v>
       </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>3190</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>213180</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C41" s="10">
         <v>3190</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>213180</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>50</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <f>50*60</f>
         <v>3000</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="10">
-        <f>C41</f>
+      <c r="C43" s="10">
+        <f>C42</f>
         <v>50</v>
       </c>
-      <c r="D42" s="10">
-        <f>D41</f>
+      <c r="D43" s="10">
+        <f>D42</f>
         <v>3000</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="159" t="s">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="160"/>
-      <c r="C43" s="10">
-        <f>C30+C33+C38+C40+C42</f>
+      <c r="B44" s="178"/>
+      <c r="C44" s="10">
+        <f>C31+C34+C39+C41+C43</f>
         <v>4435</v>
       </c>
-      <c r="D43" s="10">
-        <f>D30+D33+D38+D40+D42</f>
+      <c r="D44" s="10">
+        <f>D31+D34+D39+D41+D43</f>
         <v>293477</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>295</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C58" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D58" s="28" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="44">
-        <f>C58/$C$68</f>
-        <v>2.9537767756482525E-2</v>
-      </c>
-      <c r="C58" s="14">
-        <v>131</v>
-      </c>
-      <c r="D58" s="14">
-        <v>8787</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" s="44">
-        <f t="shared" ref="B59:B67" si="0">C59/$C$68</f>
-        <v>2.0744081172491543E-2</v>
+        <f>C59/$C$69</f>
+        <v>2.9537767756482525E-2</v>
       </c>
       <c r="C59" s="14">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D59" s="14">
-        <v>6138</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="44">
+        <f t="shared" ref="B60:B68" si="0">C60/$C$69</f>
+        <v>2.0744081172491543E-2</v>
+      </c>
+      <c r="C60" s="14">
+        <v>92</v>
+      </c>
+      <c r="D60" s="14">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B61" s="44">
         <f t="shared" si="0"/>
         <v>5.8399098083427282E-2</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C61" s="14">
         <v>259</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>15480</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B62" s="44">
         <f t="shared" si="0"/>
         <v>2.2547914317925591E-4</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C62" s="14">
         <v>1</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B63" s="44">
         <f t="shared" si="0"/>
         <v>9.0191657271702366E-4</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C63" s="14">
         <v>4</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B64" s="44">
         <f t="shared" si="0"/>
         <v>2.2547914317925591E-4</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C64" s="14">
         <v>1</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B65" s="44">
         <f t="shared" si="0"/>
         <v>0.15174746335963923</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C65" s="14">
         <f>1+2+670</f>
         <v>673</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="44">
+      <c r="B66" s="44">
         <f t="shared" si="0"/>
         <v>8.1172491544532124E-3</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>36</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D66" s="32">
         <v>1610</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="44">
+      <c r="B67" s="44">
         <f t="shared" si="0"/>
         <v>0.71927846674182638</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C67" s="32">
         <v>3190</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D67" s="32">
         <v>213180</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="44">
+      <c r="B68" s="44">
         <f t="shared" si="0"/>
         <v>1.1273957158962795E-2</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C68" s="32">
         <v>50</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D68" s="32">
         <v>3000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="159" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="160"/>
-      <c r="C68" s="32">
+      <c r="B69" s="178"/>
+      <c r="C69" s="32">
         <v>4435</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D69" s="32">
         <v>293477</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A43:B43"/>
+  <mergeCells count="6">
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9940,30 +9968,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10072,10 +10100,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="156"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="3">
         <f>SUM(C6:C11)</f>
         <v>341</v>
@@ -10156,10 +10184,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="160"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="3">
         <f>SUM(C13:C17)</f>
         <v>5</v>
@@ -10212,10 +10240,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="159" t="s">
+      <c r="A22" s="177" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="160"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="3">
         <f>SUM(C19:C21)</f>
         <v>3</v>
@@ -10240,10 +10268,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="160"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="3">
         <f>10</f>
         <v>10</v>
@@ -10295,10 +10323,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="160"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="3">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -10323,10 +10351,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="160"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -10351,10 +10379,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="160"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="3">
         <f>SUM(C31)</f>
         <v>7</v>
@@ -10393,10 +10421,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="160"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="3">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -10407,10 +10435,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="160"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -10586,10 +10614,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="159" t="s">
+      <c r="A54" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="160"/>
+      <c r="B54" s="178"/>
       <c r="C54">
         <v>100</v>
       </c>
@@ -10599,6 +10627,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10606,12 +10640,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10645,128 +10673,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="179" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="179" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="181" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162" t="s">
+      <c r="E6" s="180"/>
+      <c r="F6" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162" t="s">
+      <c r="G6" s="180"/>
+      <c r="H6" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162" t="s">
+      <c r="I6" s="180"/>
+      <c r="J6" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162" t="s">
+      <c r="K6" s="180"/>
+      <c r="L6" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162" t="s">
+      <c r="M6" s="180"/>
+      <c r="N6" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162" t="s">
+      <c r="O6" s="180"/>
+      <c r="P6" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="162"/>
+      <c r="Q6" s="180"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -11139,12 +11167,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -11161,12 +11189,12 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -11183,12 +11211,12 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -11441,12 +11469,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
@@ -11586,12 +11614,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="182" t="s">
         <v>319</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="132" t="s">
@@ -11623,12 +11651,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="182" t="s">
         <v>321</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
@@ -11696,12 +11724,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="B43" s="164"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="129" t="s">
@@ -11733,12 +11761,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="164" t="s">
+      <c r="A46" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="129" t="s">

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE7FEC-103B-43FD-A125-15B8C1F0C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66928742-4C9A-4233-BEBC-02E5207A1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -1707,7 +1707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1783,6 +1783,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,7 +2034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2455,6 +2467,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2464,15 +2485,36 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9072,8 +9114,8 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9393,11 +9435,11 @@
       <c r="E22" s="147"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="183"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="185"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="182"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -9956,8 +9998,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10100,15 +10142,15 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="3">
+      <c r="B12" s="186"/>
+      <c r="C12" s="136">
         <f>SUM(C6:C11)</f>
         <v>341</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="136">
         <f>SUM(D6:D11)</f>
         <v>20224</v>
       </c>
@@ -10184,15 +10226,15 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="177" t="s">
+      <c r="A18" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="178"/>
-      <c r="C18" s="3">
+      <c r="B18" s="190"/>
+      <c r="C18" s="191">
         <f>SUM(C13:C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="191">
         <f>SUM(D13:D17)</f>
         <v>300</v>
       </c>
@@ -10240,15 +10282,15 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="3">
+      <c r="B22" s="193"/>
+      <c r="C22" s="194">
         <f>SUM(C19:C21)</f>
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="194">
         <f>SUM(D19:D21)</f>
         <v>180</v>
       </c>
@@ -10268,15 +10310,15 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="3">
+      <c r="B24" s="196"/>
+      <c r="C24" s="197">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="197">
         <v>600</v>
       </c>
     </row>
@@ -10323,15 +10365,15 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="3">
+      <c r="B28" s="188"/>
+      <c r="C28" s="136">
         <f>SUM(C25:C27)</f>
         <v>670</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="136">
         <f>SUM(D25:D27)</f>
         <v>44811</v>
       </c>
@@ -10379,15 +10421,15 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="178"/>
-      <c r="C32" s="3">
+      <c r="B32" s="193"/>
+      <c r="C32" s="194">
         <f>SUM(C31)</f>
         <v>7</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="194">
         <f>SUM(D31)</f>
         <v>437</v>
       </c>
@@ -10421,15 +10463,15 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="178"/>
-      <c r="C35" s="3">
+      <c r="B35" s="188"/>
+      <c r="C35" s="136">
         <f>SUM(C33:C34)</f>
         <v>2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="136">
         <f>SUM(D33:D34)</f>
         <v>100</v>
       </c>
@@ -10627,12 +10669,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10640,6 +10676,12 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10757,44 +10799,44 @@
       <c r="Q4" s="179"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180" t="s">
+      <c r="G6" s="183"/>
+      <c r="H6" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180" t="s">
+      <c r="I6" s="183"/>
+      <c r="J6" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180" t="s">
+      <c r="M6" s="183"/>
+      <c r="N6" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180" t="s">
+      <c r="O6" s="183"/>
+      <c r="P6" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="180"/>
+      <c r="Q6" s="183"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -11469,12 +11511,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
@@ -11614,12 +11656,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="185" t="s">
         <v>319</v>
       </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="132" t="s">
@@ -11651,12 +11693,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
@@ -11724,12 +11766,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="129" t="s">
@@ -11761,12 +11803,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="182" t="s">
+      <c r="A46" s="185" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="182"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="129" t="s">

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД 22.12.2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66928742-4C9A-4233-BEBC-02E5207A1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0FE8BF-A9C1-4306-B2C6-435EDA760419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2413,6 +2413,9 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,6 +2479,33 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2485,36 +2515,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6582,16 +6582,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -6735,10 +6735,10 @@
         <v>159</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="165" t="s">
+      <c r="G13" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="166"/>
+      <c r="H13" s="169"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
       <c r="E23" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="170" t="s">
+      <c r="F23" s="173" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="78" t="s">
@@ -6933,7 +6933,7 @@
       <c r="E24" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="171"/>
+      <c r="F24" s="174"/>
       <c r="G24" s="72" t="s">
         <v>190</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="E25" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="171"/>
+      <c r="F25" s="174"/>
       <c r="G25" s="72"/>
       <c r="H25" s="83"/>
       <c r="I25" s="22"/>
@@ -6969,7 +6969,7 @@
       <c r="E26" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="171"/>
+      <c r="F26" s="174"/>
       <c r="G26" s="72">
         <v>22</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="E27" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="172"/>
+      <c r="F27" s="175"/>
       <c r="G27" s="72" t="s">
         <v>135</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="E29" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="167" t="s">
+      <c r="F29" s="170" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="65" t="s">
@@ -7047,7 +7047,7 @@
       <c r="E30" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="168"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="65" t="s">
         <v>136</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="E31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="168"/>
+      <c r="F31" s="171"/>
       <c r="G31" s="65">
         <v>324116</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="E32" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="168"/>
+      <c r="F32" s="171"/>
       <c r="G32" s="65"/>
       <c r="H32" s="87"/>
       <c r="I32" s="22"/>
@@ -7104,7 +7104,7 @@
       <c r="E33" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="168"/>
+      <c r="F33" s="171"/>
       <c r="G33" s="65">
         <v>320505</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="E34" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="168"/>
+      <c r="F34" s="171"/>
       <c r="G34" s="65" t="s">
         <v>134</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="E35" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="168"/>
+      <c r="F35" s="171"/>
       <c r="G35" s="65" t="s">
         <v>138</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="E36" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="168"/>
+      <c r="F36" s="171"/>
       <c r="G36" s="65"/>
       <c r="H36" s="88">
         <v>352609</v>
@@ -7184,7 +7184,7 @@
       <c r="E37" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="168"/>
+      <c r="F37" s="171"/>
       <c r="G37" s="65"/>
       <c r="H37" s="88" t="s">
         <v>187</v>
@@ -7203,7 +7203,7 @@
       <c r="E38" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="168"/>
+      <c r="F38" s="171"/>
       <c r="G38" s="65">
         <v>68.05</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="E39" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="168"/>
+      <c r="F39" s="171"/>
       <c r="G39" s="65">
         <v>22.95</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="E40" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="168"/>
+      <c r="F40" s="171"/>
       <c r="G40" s="65">
         <v>23.3</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="E41" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="168"/>
+      <c r="F41" s="171"/>
       <c r="G41" s="65"/>
       <c r="H41" s="87"/>
       <c r="I41" s="101" t="s">
@@ -7325,7 +7325,7 @@
       <c r="E42" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="168"/>
+      <c r="F42" s="171"/>
       <c r="G42" s="65">
         <v>386</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="E43" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="168"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="65" t="s">
         <v>139</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="E44" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="168"/>
+      <c r="F44" s="171"/>
       <c r="G44" s="65">
         <v>8204255</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="E45" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="168"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="65" t="s">
         <v>189</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="E46" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="169"/>
+      <c r="F46" s="172"/>
       <c r="G46" s="65" t="s">
         <v>251</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="E47" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="162" t="s">
+      <c r="F47" s="165" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="52">
@@ -7431,7 +7431,7 @@
       <c r="E48" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="162"/>
+      <c r="F48" s="165"/>
       <c r="G48" s="52">
         <v>324116</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="E49" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="162"/>
+      <c r="F49" s="165"/>
       <c r="G49" s="52" t="s">
         <v>140</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="E50" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="162"/>
+      <c r="F50" s="165"/>
       <c r="G50" s="52">
         <v>320505</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="E51" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="162"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="52" t="s">
         <v>141</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="E52" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="162"/>
+      <c r="F52" s="165"/>
       <c r="G52" s="52">
         <v>815</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="E53" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="162"/>
+      <c r="F53" s="165"/>
       <c r="G53" s="52" t="s">
         <v>225</v>
       </c>
@@ -7521,7 +7521,7 @@
       <c r="E54" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="162"/>
+      <c r="F54" s="165"/>
       <c r="G54" s="52">
         <v>68.06</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="E55" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="162"/>
+      <c r="F55" s="165"/>
       <c r="G55" s="52"/>
       <c r="H55" s="90"/>
       <c r="I55" s="62"/>
@@ -7555,7 +7555,7 @@
       <c r="E56" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="163" t="s">
+      <c r="F56" s="166" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="55" t="s">
@@ -7575,7 +7575,7 @@
       <c r="E57" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="163"/>
+      <c r="F57" s="166"/>
       <c r="G57" s="55"/>
       <c r="H57" s="91"/>
       <c r="I57" s="22"/>
@@ -7589,7 +7589,7 @@
       <c r="E58" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="163"/>
+      <c r="F58" s="166"/>
       <c r="G58" s="55"/>
       <c r="H58" s="91"/>
       <c r="I58" s="22"/>
@@ -7603,7 +7603,7 @@
       <c r="E59" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="163"/>
+      <c r="F59" s="166"/>
       <c r="G59" s="55"/>
       <c r="H59" s="91"/>
       <c r="I59" s="22"/>
@@ -7617,7 +7617,7 @@
       <c r="E60" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="163"/>
+      <c r="F60" s="166"/>
       <c r="G60" s="55"/>
       <c r="H60" s="91"/>
       <c r="I60" s="22"/>
@@ -7631,7 +7631,7 @@
       <c r="E61" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="163"/>
+      <c r="F61" s="166"/>
       <c r="G61" s="56"/>
       <c r="H61" s="92"/>
       <c r="I61" s="22"/>
@@ -7645,7 +7645,7 @@
       <c r="E62" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="163"/>
+      <c r="F62" s="166"/>
       <c r="G62" s="57" t="s">
         <v>143</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="E63" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="163"/>
+      <c r="F63" s="166"/>
       <c r="G63" s="57"/>
       <c r="H63" s="92"/>
       <c r="I63" s="22"/>
@@ -7675,7 +7675,7 @@
       <c r="E64" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="163"/>
+      <c r="F64" s="166"/>
       <c r="G64" s="57"/>
       <c r="H64" s="91"/>
       <c r="I64" s="22"/>
@@ -7896,19 +7896,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
@@ -8390,28 +8390,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -8708,10 +8708,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="174"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -8884,20 +8884,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -9128,31 +9128,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="144" t="s">
@@ -9435,11 +9435,11 @@
       <c r="E22" s="147"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="182"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -9763,10 +9763,10 @@
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="10">
         <f>C31+C34+C39+C41+C43</f>
         <v>4435</v>
@@ -9963,10 +9963,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="32">
         <v>4435</v>
       </c>
@@ -9998,8 +9998,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10010,30 +10010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10142,10 +10142,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="186"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="136">
         <f>SUM(C6:C11)</f>
         <v>341</v>
@@ -10226,15 +10226,15 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191">
+      <c r="B18" s="187"/>
+      <c r="C18" s="162">
         <f>SUM(C13:C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="191">
+      <c r="D18" s="162">
         <f>SUM(D13:D17)</f>
         <v>300</v>
       </c>
@@ -10282,15 +10282,15 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="188" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194">
+      <c r="B22" s="189"/>
+      <c r="C22" s="163">
         <f>SUM(C19:C21)</f>
         <v>3</v>
       </c>
-      <c r="D22" s="194">
+      <c r="D22" s="163">
         <f>SUM(D19:D21)</f>
         <v>180</v>
       </c>
@@ -10310,15 +10310,15 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="197">
+      <c r="B24" s="191"/>
+      <c r="C24" s="164">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D24" s="197">
+      <c r="D24" s="164">
         <v>600</v>
       </c>
     </row>
@@ -10365,10 +10365,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="187" t="s">
+      <c r="A28" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="188"/>
+      <c r="B28" s="194"/>
       <c r="C28" s="136">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -10393,10 +10393,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="178"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -10421,15 +10421,15 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194">
+      <c r="B32" s="189"/>
+      <c r="C32" s="163">
         <f>SUM(C31)</f>
         <v>7</v>
       </c>
-      <c r="D32" s="194">
+      <c r="D32" s="163">
         <f>SUM(D31)</f>
         <v>437</v>
       </c>
@@ -10463,10 +10463,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="187" t="s">
+      <c r="A35" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="188"/>
+      <c r="B35" s="194"/>
       <c r="C35" s="136">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -10477,10 +10477,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="178"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -10656,10 +10656,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="177" t="s">
+      <c r="A54" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="178"/>
+      <c r="B54" s="181"/>
       <c r="C54">
         <v>100</v>
       </c>
@@ -10669,6 +10669,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10676,12 +10682,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10715,128 +10715,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="182" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="196" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183" t="s">
+      <c r="E6" s="195"/>
+      <c r="F6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183" t="s">
+      <c r="G6" s="195"/>
+      <c r="H6" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="195" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183" t="s">
+      <c r="K6" s="195"/>
+      <c r="L6" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183" t="s">
+      <c r="M6" s="195"/>
+      <c r="N6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="183"/>
+      <c r="Q6" s="195"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -11209,12 +11209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="182" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -11231,12 +11231,12 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -11253,12 +11253,12 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -11511,12 +11511,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
@@ -11656,12 +11656,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="132" t="s">
@@ -11693,12 +11693,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="197" t="s">
         <v>321</v>
       </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="129" t="s">
@@ -11766,12 +11766,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="197" t="s">
         <v>323</v>
       </c>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="129" t="s">
@@ -11803,12 +11803,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="197" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="129" t="s">
